--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121B1F9-C6CC-4DBB-8AD9-2DCDD5F10D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92620ADD-350D-4BAE-B324-7B8BAE7B5517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Deadline</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>up for feedback</t>
   </si>
 </sst>
 </file>
@@ -140,22 +143,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +476,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,32 +486,33 @@
     <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
@@ -517,58 +521,58 @@
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -576,13 +580,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>44654</v>
       </c>
       <c r="E3" t="s">
@@ -591,7 +595,7 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>44654</v>
       </c>
       <c r="I3" t="s">
@@ -600,16 +604,16 @@
       <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>44654</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="1">
         <v>44654</v>
       </c>
       <c r="Q3" t="s">
@@ -617,11 +621,11 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
+      <c r="B4" s="7"/>
       <c r="O4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <v>44654</v>
       </c>
       <c r="Q4" t="s">
@@ -629,7 +633,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92620ADD-350D-4BAE-B324-7B8BAE7B5517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3B1565-8481-40E0-815C-A1A87C60BC68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>up for feedback</t>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,6 +610,9 @@
       <c r="M3" t="s">
         <v>18</v>
       </c>
+      <c r="N3" s="1">
+        <v>44652</v>
+      </c>
       <c r="O3" t="s">
         <v>15</v>
       </c>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3B1565-8481-40E0-815C-A1A87C60BC68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109223E9-FA55-4767-AFDA-2F9E14624703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109223E9-FA55-4767-AFDA-2F9E14624703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D20B0E-4779-4893-8B1D-29A164EE6D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,18 +37,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
+    <t>Arfat Kamal</t>
+  </si>
+  <si>
+    <t>Md Saidur Rahman</t>
+  </si>
+  <si>
+    <t>Sahat al Ferodus Fahim</t>
+  </si>
+  <si>
+    <t>Tasawar Siddiquy</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Short summery</t>
+  </si>
+  <si>
+    <t>To-do</t>
+  </si>
+  <si>
     <t>Deadline</t>
   </si>
   <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Short summery</t>
-  </si>
-  <si>
-    <t>Arfat Kamal</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -51,24 +73,18 @@
     <t>SysML Diagrams</t>
   </si>
   <si>
-    <t>Md Saidur Rahman</t>
-  </si>
-  <si>
-    <t>Sahat al Ferodus Fahim</t>
-  </si>
-  <si>
-    <t>Tasawar Siddiquy</t>
-  </si>
-  <si>
-    <t>To-do</t>
-  </si>
-  <si>
     <t>Use case</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>Requirements</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Block-Diagrams</t>
   </si>
   <si>
@@ -76,19 +92,13 @@
   </si>
   <si>
     <t>Constraints</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,112 +486,112 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -590,52 +600,55 @@
         <v>44654</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44654</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>44654</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1">
         <v>44654</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3" s="1">
         <v>44652</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P3" s="1">
         <v>44654</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="B4" s="7"/>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P4" s="1">
         <v>44654</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="B5" s="7"/>
     </row>
   </sheetData>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D20B0E-4779-4893-8B1D-29A164EE6D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C898C-79AE-41E6-9D89-078D2B1D7B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="8325" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -52,9 +42,6 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>Short summery</t>
-  </si>
-  <si>
     <t>To-do</t>
   </si>
   <si>
@@ -76,9 +63,6 @@
     <t>Use case</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
@@ -92,13 +76,19 @@
   </si>
   <si>
     <t>Constraints</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Short summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,10 +476,10 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
@@ -502,7 +492,7 @@
     <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="5" t="s">
@@ -530,125 +520,131 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>44654</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1">
         <v>44654</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>44654</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>44654</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1">
         <v>44652</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1">
         <v>44654</v>
       </c>
       <c r="Q3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="R3" s="1">
+        <v>44653</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P4" s="1">
         <v>44654</v>
       </c>
       <c r="Q4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="R4" s="1">
+        <v>44653</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
     </row>
   </sheetData>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C898C-79AE-41E6-9D89-078D2B1D7B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685E816F-FAD4-4A09-A3ED-BF20D2E25BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="8325" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -159,6 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +477,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +632,18 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="9">
+        <v>44654</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1">
+        <v>44653</v>
+      </c>
       <c r="O4" t="s">
         <v>16</v>
       </c>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\GitHub\prototyping-team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C898C-79AE-41E6-9D89-078D2B1D7B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBCF412-689F-4F54-8F88-40292D627C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="8325" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,23 +476,25 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="5" t="s">
@@ -520,7 +522,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -576,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -629,7 +631,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="O4" t="s">
         <v>16</v>
@@ -644,7 +646,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
     </row>
   </sheetData>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBCF412-689F-4F54-8F88-40292D627C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1A6F0-2224-4A1B-BC6E-BCFFC118DD6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,6 +633,18 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44654</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1">
+        <v>44653</v>
+      </c>
       <c r="O4" t="s">
         <v>16</v>
       </c>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1A6F0-2224-4A1B-BC6E-BCFFC118DD6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAFB72A-167A-4E38-B3E1-461C05DBFF80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Requirements</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Block-Diagrams</t>
@@ -476,7 +473,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,6 +482,7 @@
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -527,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -592,7 +590,7 @@
         <v>44654</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>44654</v>
@@ -604,28 +602,31 @@
         <v>44654</v>
       </c>
       <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44654</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
       <c r="L3" s="1">
         <v>44654</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="1">
         <v>44652</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="1">
         <v>44654</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R3" s="1">
         <v>44653</v>
@@ -634,25 +635,25 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
+        <v>44654</v>
+      </c>
+      <c r="M4" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" s="1">
-        <v>44654</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
       </c>
       <c r="N4" s="1">
         <v>44653</v>
       </c>
       <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1">
+        <v>44654</v>
+      </c>
+      <c r="Q4" t="s">
         <v>16</v>
-      </c>
-      <c r="P4" s="1">
-        <v>44654</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>17</v>
       </c>
       <c r="R4" s="1">
         <v>44653</v>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAFB72A-167A-4E38-B3E1-461C05DBFF80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A71D6E-DFD3-4186-B8A8-F55CAE5A5848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -79,6 +79,27 @@
   </si>
   <si>
     <t>Short summary</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Tinkercad Sim</t>
+  </si>
+  <si>
+    <t>Ultrasonic</t>
+  </si>
+  <si>
+    <t>IR sensor</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Circuit Dev</t>
+  </si>
+  <si>
+    <t>Integration Everything</t>
   </si>
 </sst>
 </file>
@@ -470,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA807FDD-2A6D-4008-9635-57A42367C672}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +505,7 @@
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -662,8 +683,53 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44661</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44661</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44661</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A71D6E-DFD3-4186-B8A8-F55CAE5A5848}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD8CA7DD-0AF6-469C-BABC-15E991CF151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -42,6 +52,9 @@
     <t>Tasks</t>
   </si>
   <si>
+    <t>Short summary</t>
+  </si>
+  <si>
     <t>To-do</t>
   </si>
   <si>
@@ -63,6 +76,9 @@
     <t>Use case</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Requirements</t>
   </si>
   <si>
@@ -75,38 +91,32 @@
     <t>Constraints</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Short summary</t>
-  </si>
-  <si>
     <t>Task 2</t>
   </si>
   <si>
     <t>Tinkercad Sim</t>
   </si>
   <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>IR sensor</t>
+  </si>
+  <si>
+    <t>Integration Everything</t>
+  </si>
+  <si>
     <t>Ultrasonic</t>
   </si>
   <si>
-    <t>IR sensor</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
     <t>Circuit Dev</t>
-  </si>
-  <si>
-    <t>Integration Everything</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,208 +504,214 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>44654</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>44654</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>44654</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1">
         <v>44654</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1">
         <v>44654</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N3" s="1">
         <v>44652</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P3" s="1">
         <v>44654</v>
       </c>
       <c r="Q3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R3" s="1">
         <v>44653</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
+    <row r="4" spans="1:18">
+      <c r="B4" s="5"/>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1">
         <v>44654</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N4" s="1">
         <v>44653</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="1">
         <v>44654</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R4" s="1">
         <v>44653</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
+    <row r="5" spans="1:18">
+      <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>44661</v>
       </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44656</v>
+      </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
@@ -703,29 +719,29 @@
         <v>44661</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1">
         <v>44661</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P6" s="1">
         <v>44661</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:18">
+      <c r="B7" s="5"/>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
         <v>44661</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:18">
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD8CA7DD-0AF6-469C-BABC-15E991CF151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457694B-2E23-4B95-8094-BBACE7BE7884}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -103,20 +93,29 @@
     <t>IR sensor</t>
   </si>
   <si>
-    <t>Integration Everything</t>
-  </si>
-  <si>
     <t>Ultrasonic</t>
   </si>
   <si>
     <t>Circuit Dev</t>
+  </si>
+  <si>
+    <t>White_line_implentation</t>
+  </si>
+  <si>
+    <t>Black_line_implentation</t>
+  </si>
+  <si>
+    <t>State_chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -187,6 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,27 +503,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA807FDD-2A6D-4008-9635-57A42367C672}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="6" t="s">
@@ -551,7 +551,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -663,7 +663,7 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="K4" t="s">
         <v>17</v>
@@ -690,10 +690,10 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -718,30 +718,76 @@
       <c r="H6" s="1">
         <v>44661</v>
       </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="9">
+        <v>44658</v>
+      </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1">
         <v>44661</v>
       </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="9">
+        <v>44658</v>
+      </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="1">
         <v>44661</v>
       </c>
+      <c r="Q6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="9">
+        <v>44658</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>44661</v>
       </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9">
+        <v>44658</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44661</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="9">
+        <v>44658</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="9">
+        <v>44658</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$5CFJ00-M5DIHQERSA94\Documents\GitHub\prototyping-team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457694B-2E23-4B95-8094-BBACE7BE7884}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D3695-1558-4F05-A165-085838555242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13236" windowHeight="8328" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="8325" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -174,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,7 +187,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,55 +503,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA807FDD-2A6D-4008-9635-57A42367C672}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="7" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -607,11 +607,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -663,8 +663,8 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
       <c r="K4" t="s">
         <v>17</v>
       </c>
@@ -690,14 +690,14 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -721,7 +721,7 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <v>44658</v>
       </c>
       <c r="K6" t="s">
@@ -733,7 +733,7 @@
       <c r="M6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="5">
         <v>44658</v>
       </c>
       <c r="O6" t="s">
@@ -745,12 +745,12 @@
       <c r="Q6" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="5">
         <v>44658</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
       <c r="G7" t="s">
         <v>23</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>44658</v>
       </c>
       <c r="K7" t="s">
@@ -772,12 +772,12 @@
       <c r="M7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="5">
         <v>44658</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
       <c r="K8" t="s">
         <v>26</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="5">
         <v>44658</v>
       </c>
     </row>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D3695-1558-4F05-A165-085838555242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D5B09-A2E5-49E5-A0C0-E6BC01F174FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="8325" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>State_chart</t>
+  </si>
+  <si>
+    <t>Modify Block Diagram</t>
+  </si>
+  <si>
+    <t>ompleted</t>
   </si>
 </sst>
 </file>
@@ -168,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -187,6 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA807FDD-2A6D-4008-9635-57A42367C672}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +782,15 @@
       <c r="N7" s="5">
         <v>44658</v>
       </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="10">
+        <v>44658</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS PC\Documents\GitHub\prototyping-team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D5B09-A2E5-49E5-A0C0-E6BC01F174FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2BB31-F1BB-41C3-856D-997E6DE89BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="8325" xr2:uid="{0FBAEC5A-D9BC-41CC-9944-A61110E48A45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Arfat Kamal</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>ompleted</t>
+  </si>
+  <si>
+    <t>Modify Requirements Diagram</t>
   </si>
 </sst>
 </file>
@@ -181,6 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -193,7 +197,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +514,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,32 +534,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -618,7 +621,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -671,7 +674,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="K4" t="s">
         <v>17</v>
       </c>
@@ -698,13 +701,13 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
@@ -757,7 +760,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="G7" t="s">
         <v>23</v>
       </c>
@@ -788,12 +791,18 @@
       <c r="Q7" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="6">
         <v>44658</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
